--- a/0 _ docs/2 _ 화면 설계 (user-app).xlsx
+++ b/0 _ docs/2 _ 화면 설계 (user-app).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev-ezen\rental-cars\0 _ docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE11134-E6BF-4BCB-9C25-921B3620BC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F93D6-55DE-4B47-B9BE-1E802A0DEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1695" windowWidth="12075" windowHeight="12240" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
+    <workbookView xWindow="4500" yWindow="825" windowWidth="14535" windowHeight="14160" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>user-app UI 설계 (최종 수정: 2024.02.05.MON 16:15:00)</t>
+    <t>user-app UI 설계 (최종 수정: 2024.02.05.MON 17:00:00)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,6 +1241,12 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,30 +1264,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1910,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98531398-C03B-4527-8006-CCEE9F94C8A2}">
   <dimension ref="C2:AU294"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5:AT31"/>
     </sheetView>
@@ -1922,53 +1904,53 @@
   <sheetData>
     <row r="2" spans="3:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:47" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="66"/>
     </row>
     <row r="4" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
@@ -2070,6 +2052,9 @@
     <row r="14" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="M14" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="AU14" s="3"/>
     </row>
@@ -2082,16 +2067,22 @@
     <row r="16" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="17"/>
       <c r="V16" s="3"/>
       <c r="AU16" s="3"/>
     </row>
@@ -2216,14 +2207,14 @@
       <c r="Y27" s="11"/>
       <c r="AU27" s="3"/>
     </row>
-    <row r="28" spans="3:47" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="68"/>
-      <c r="E28" s="70"/>
-      <c r="H28" s="71" t="s">
+    <row r="28" spans="3:47" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="H28" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="Y28" s="72"/>
-      <c r="AU28" s="73"/>
+      <c r="Y28" s="11"/>
+      <c r="AU28" s="3"/>
     </row>
     <row r="29" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
@@ -2490,22 +2481,22 @@
     <row r="45" spans="3:47" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="67"/>
-      <c r="O45" s="65" t="s">
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="69"/>
+      <c r="O45" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="67"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="69"/>
       <c r="V45" s="3"/>
       <c r="Y45" s="39"/>
       <c r="Z45" s="39"/>

--- a/0 _ docs/2 _ 화면 설계 (user-app).xlsx
+++ b/0 _ docs/2 _ 화면 설계 (user-app).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev-ezen\rental-cars\0 _ docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F93D6-55DE-4B47-B9BE-1E802A0DEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA272F-FD93-4732-941B-94616BD1942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="825" windowWidth="14535" windowHeight="14160" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
+    <workbookView xWindow="1740" yWindow="1500" windowWidth="11265" windowHeight="11370" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1892,9 +1892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98531398-C03B-4527-8006-CCEE9F94C8A2}">
   <dimension ref="C2:AU294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:AT31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113:AT153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/0 _ docs/2 _ 화면 설계 (user-app).xlsx
+++ b/0 _ docs/2 _ 화면 설계 (user-app).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev-ezen\rental-cars\0 _ docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA272F-FD93-4732-941B-94616BD1942A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7CFBE-191F-47CF-B288-6C91AF48257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1500" windowWidth="11265" windowHeight="11370" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27D1F9A5-D906-4A19-AD47-54230B13E495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1893,8 +1893,8 @@
   <dimension ref="C2:AU294"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113:AT153"/>
+      <pane ySplit="3" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BD206" sqref="BD206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
